--- a/matriz-de-consistencia/html/matriz-de-consistencia.xlsx
+++ b/matriz-de-consistencia/html/matriz-de-consistencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitmaraliaga/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitmaraliaga/Downloads/matriz-de-consistencia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E612FC-7D12-FC44-9F3F-BBE31402EBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1770EA3A-652A-4146-962F-D4F32253F513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="920" windowWidth="25300" windowHeight="15360" xr2:uid="{261912C5-AB68-4FA7-8AB0-D043C70B1FDA}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,14 +149,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -203,9 +195,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -215,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -225,50 +223,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,10 +561,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -608,194 +582,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
@@ -804,48 +778,48 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
@@ -854,98 +828,87 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="A5:A21"/>
+    <mergeCell ref="B5:B21"/>
+    <mergeCell ref="G5:G21"/>
+    <mergeCell ref="F5:F21"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I21"/>
+    <mergeCell ref="E5:E21"/>
     <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="G6:G22"/>
-    <mergeCell ref="F6:F22"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I22"/>
-    <mergeCell ref="E6:E22"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
